--- a/Моделирование ИАС/2 семестр/Пр4/Экспертные таблицы.xlsx
+++ b/Моделирование ИАС/2 семестр/Пр4/Экспертные таблицы.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University\Моделирование ИАС\2 семестр\Пр4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Моделирование ИАС\2 семестр\Пр4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{621D2294-724C-419C-B6FC-9B2AC0559CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD35B3D4-D739-40C1-AAEE-1F974FC7A9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13680" xr2:uid="{179DB09E-B515-4FAE-BC6F-B4089FFA0642}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{179DB09E-B515-4FAE-BC6F-B4089FFA0642}"/>
   </bookViews>
   <sheets>
     <sheet name="Список угроз" sheetId="1" r:id="rId1"/>
@@ -511,9 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -521,10 +518,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -841,20 +841,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B8F044-46EB-409A-9153-D3EAF7757CCE}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -900,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -923,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -969,7 +969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1465,44 +1465,44 @@
       <selection activeCell="F1" sqref="F1:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="170.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="170.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.90625" customWidth="1"/>
-    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1515,32 +1515,32 @@
       <c r="D2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1553,33 +1553,33 @@
       <c r="D3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>9</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>8</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>9</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <f>AVERAGE(H3:J3)</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1592,33 +1592,33 @@
       <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>8</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>9</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>8</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f t="shared" ref="K4:K27" si="0">AVERAGE(H4:J4)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1631,33 +1631,33 @@
       <c r="D5" s="3">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>6</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>9</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>8</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>8</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1670,33 +1670,33 @@
       <c r="D6" s="3">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>9</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>8</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>8</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1709,33 +1709,33 @@
       <c r="D7" s="3">
         <v>9</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>9</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>8</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>7</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1748,33 +1748,33 @@
       <c r="D8" s="3">
         <v>9</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>7</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>9</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>8</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1787,33 +1787,33 @@
       <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>8</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1826,33 +1826,33 @@
       <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>8</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>8</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>8</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1865,33 +1865,33 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>24</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>8</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>8</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>7</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1904,33 +1904,33 @@
       <c r="D12" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>8</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>7</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>7</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="0"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1943,33 +1943,33 @@
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>7</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>7</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>8</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>7</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" si="0"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1982,33 +1982,33 @@
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>10</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>8</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>7</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>7</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2021,33 +2021,33 @@
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>21</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>7</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>7</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>7</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2060,33 +2060,33 @@
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>18</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>7</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>7</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2099,33 +2099,33 @@
       <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>9</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>5</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>8</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>6</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2138,33 +2138,33 @@
       <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>13</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>7</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>6</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>6</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2177,33 +2177,33 @@
       <c r="D19" s="3">
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>14</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>6</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>7</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>6</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2216,33 +2216,33 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>22</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>6</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>7</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>6</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2255,33 +2255,33 @@
       <c r="D21" s="3">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>25</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>7</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>6</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>6</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2294,33 +2294,33 @@
       <c r="D22" s="3">
         <v>5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>16</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>6</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>6</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>5</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2333,33 +2333,33 @@
       <c r="D23" s="3">
         <v>7</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>8</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>6</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>5</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>5</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2372,33 +2372,33 @@
       <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>11</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>4</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>7</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>5</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2411,33 +2411,33 @@
       <c r="D25" s="3">
         <v>5</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>15</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>5</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>6</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>5</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2450,33 +2450,33 @@
       <c r="D26" s="3">
         <v>8</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>20</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>5</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>6</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>5</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2489,41 +2489,41 @@
       <c r="D27" s="3">
         <v>7</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>23</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>5</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>6</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>5</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>4</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>6</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>9</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>10</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>11</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>13</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>14</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>15</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>16</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>17</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>18</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>19</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>20</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>21</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>22</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>23</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>24</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>25</v>
       </c>
@@ -2887,15 +2887,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>5</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>7</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>8</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>9</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>10</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>11</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>12</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>13</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>14</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>15</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>16</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>17</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>18</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>19</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>20</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>21</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>22</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>23</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>24</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>25</v>
       </c>
@@ -3279,46 +3279,46 @@
       <selection activeCell="E1" sqref="E1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -3348,14 +3348,14 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="9">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="3">
@@ -3373,8 +3373,8 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-      <c r="J3" s="11">
-        <f xml:space="preserve"> AVERAGE(G3:I3)</f>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J27" si="0" xml:space="preserve"> AVERAGE(G3:I3)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3386,14 +3386,14 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="3">
@@ -3411,8 +3411,8 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
-      <c r="J4" s="11">
-        <f xml:space="preserve"> AVERAGE(G4:I4)</f>
+      <c r="J4" s="9">
+        <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -3424,14 +3424,14 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="3">
@@ -3449,8 +3449,8 @@
       <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="11">
-        <f xml:space="preserve"> AVERAGE(G5:I5)</f>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -3462,14 +3462,14 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A6" s="9">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -3487,8 +3487,8 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="11">
-        <f xml:space="preserve"> AVERAGE(G6:I6)</f>
+      <c r="J6" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -3500,14 +3500,14 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="E7" s="3">
@@ -3525,8 +3525,8 @@
       <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="11">
-        <f xml:space="preserve"> AVERAGE(G7:I7)</f>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -3538,14 +3538,14 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>6</v>
       </c>
       <c r="E8" s="3">
@@ -3563,8 +3563,8 @@
       <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="11">
-        <f xml:space="preserve"> AVERAGE(G8:I8)</f>
+      <c r="J8" s="9">
+        <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -3576,14 +3576,14 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -3601,8 +3601,8 @@
       <c r="I9" s="3">
         <v>8</v>
       </c>
-      <c r="J9" s="11">
-        <f xml:space="preserve"> AVERAGE(G9:I9)</f>
+      <c r="J9" s="9">
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -3614,14 +3614,14 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="E10" s="3">
@@ -3639,8 +3639,8 @@
       <c r="I10" s="3">
         <v>7</v>
       </c>
-      <c r="J10" s="11">
-        <f xml:space="preserve"> AVERAGE(G10:I10)</f>
+      <c r="J10" s="9">
+        <f t="shared" si="0"/>
         <v>7.333333333333333</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -3652,14 +3652,14 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>4</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>9</v>
       </c>
       <c r="E11" s="3">
@@ -3677,8 +3677,8 @@
       <c r="I11" s="3">
         <v>9</v>
       </c>
-      <c r="J11" s="11">
-        <f xml:space="preserve"> AVERAGE(G11:I11)</f>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -3690,14 +3690,14 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
         <v>24</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>10</v>
       </c>
       <c r="E12" s="3">
@@ -3715,8 +3715,8 @@
       <c r="I12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="11">
-        <f xml:space="preserve"> AVERAGE(G12:I12)</f>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
         <v>10.333333333333334</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -3728,14 +3728,14 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>11</v>
       </c>
       <c r="E13" s="3">
@@ -3753,8 +3753,8 @@
       <c r="I13" s="3">
         <v>11</v>
       </c>
-      <c r="J13" s="11">
-        <f xml:space="preserve"> AVERAGE(G13:I13)</f>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
         <v>10.333333333333334</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -3766,14 +3766,14 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>7</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>12</v>
       </c>
       <c r="E14" s="3">
@@ -3791,8 +3791,8 @@
       <c r="I14" s="3">
         <v>12</v>
       </c>
-      <c r="J14" s="11">
-        <f xml:space="preserve"> AVERAGE(G14:I14)</f>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -3804,14 +3804,14 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>13</v>
       </c>
       <c r="E15" s="3">
@@ -3829,8 +3829,8 @@
       <c r="I15" s="3">
         <v>14</v>
       </c>
-      <c r="J15" s="11">
-        <f xml:space="preserve"> AVERAGE(G15:I15)</f>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
         <v>13.666666666666666</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -3842,14 +3842,14 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
         <v>18</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>14</v>
       </c>
       <c r="E16" s="3">
@@ -3867,8 +3867,8 @@
       <c r="I16" s="3">
         <v>13</v>
       </c>
-      <c r="J16" s="11">
-        <f xml:space="preserve"> AVERAGE(G16:I16)</f>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="K16" s="3" t="s">
@@ -3880,14 +3880,14 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="9">
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>15</v>
       </c>
       <c r="E17" s="3">
@@ -3905,8 +3905,8 @@
       <c r="I17" s="3">
         <v>18</v>
       </c>
-      <c r="J17" s="11">
-        <f xml:space="preserve"> AVERAGE(G17:I17)</f>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
         <v>15.333333333333334</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -3918,14 +3918,14 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>16</v>
       </c>
       <c r="E18" s="3">
@@ -3943,8 +3943,8 @@
       <c r="I18" s="3">
         <v>15</v>
       </c>
-      <c r="J18" s="11">
-        <f xml:space="preserve"> AVERAGE(G18:I18)</f>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -3956,14 +3956,14 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A19" s="9">
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>14</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>17</v>
       </c>
       <c r="E19" s="3">
@@ -3981,8 +3981,8 @@
       <c r="I19" s="3">
         <v>16</v>
       </c>
-      <c r="J19" s="11">
-        <f xml:space="preserve"> AVERAGE(G19:I19)</f>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
         <v>17.333333333333332</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -3994,14 +3994,14 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
         <v>22</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>18</v>
       </c>
       <c r="E20" s="3">
@@ -4019,8 +4019,8 @@
       <c r="I20" s="3">
         <v>17</v>
       </c>
-      <c r="J20" s="11">
-        <f xml:space="preserve"> AVERAGE(G20:I20)</f>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -4032,14 +4032,14 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A21" s="9">
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>25</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>19</v>
       </c>
       <c r="E21" s="3">
@@ -4057,8 +4057,8 @@
       <c r="I21" s="3">
         <v>19</v>
       </c>
-      <c r="J21" s="11">
-        <f xml:space="preserve"> AVERAGE(G21:I21)</f>
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
         <v>19.333333333333332</v>
       </c>
       <c r="K21" s="3" t="s">
@@ -4070,14 +4070,14 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
         <v>16</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>20</v>
       </c>
       <c r="E22" s="3">
@@ -4095,8 +4095,8 @@
       <c r="I22" s="3">
         <v>20</v>
       </c>
-      <c r="J22" s="11">
-        <f xml:space="preserve"> AVERAGE(G22:I22)</f>
+      <c r="J22" s="9">
+        <f t="shared" si="0"/>
         <v>20.333333333333332</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -4108,14 +4108,14 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A23" s="9">
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>8</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>21</v>
       </c>
       <c r="E23" s="3">
@@ -4133,8 +4133,8 @@
       <c r="I23" s="3">
         <v>21</v>
       </c>
-      <c r="J23" s="11">
-        <f xml:space="preserve"> AVERAGE(G23:I23)</f>
+      <c r="J23" s="9">
+        <f t="shared" si="0"/>
         <v>21.333333333333332</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -4146,14 +4146,14 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
         <v>11</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>22</v>
       </c>
       <c r="E24" s="3">
@@ -4171,8 +4171,8 @@
       <c r="I24" s="3">
         <v>22</v>
       </c>
-      <c r="J24" s="11">
-        <f xml:space="preserve"> AVERAGE(G24:I24)</f>
+      <c r="J24" s="9">
+        <f t="shared" si="0"/>
         <v>20.333333333333332</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -4184,14 +4184,14 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A25" s="9">
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>23</v>
       </c>
       <c r="E25" s="3">
@@ -4209,8 +4209,8 @@
       <c r="I25" s="3">
         <v>23</v>
       </c>
-      <c r="J25" s="11">
-        <f xml:space="preserve"> AVERAGE(G25:I25)</f>
+      <c r="J25" s="9">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -4222,14 +4222,14 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>24</v>
       </c>
       <c r="E26" s="3">
@@ -4247,8 +4247,8 @@
       <c r="I26" s="3">
         <v>24</v>
       </c>
-      <c r="J26" s="11">
-        <f xml:space="preserve"> AVERAGE(G26:I26)</f>
+      <c r="J26" s="9">
+        <f t="shared" si="0"/>
         <v>24.333333333333332</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -4260,14 +4260,14 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A27" s="9">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
         <v>23</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>25</v>
       </c>
       <c r="E27" s="3">
@@ -4285,8 +4285,8 @@
       <c r="I27" s="3">
         <v>25</v>
       </c>
-      <c r="J27" s="11">
-        <f xml:space="preserve"> AVERAGE(G27:I27)</f>
+      <c r="J27" s="9">
+        <f t="shared" si="0"/>
         <v>24.666666666666668</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -4298,14 +4298,14 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>5</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>6</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>17</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>12</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>19</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>24</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>10</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>21</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>18</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>22</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>11</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>13</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>14</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>25</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>16</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>8</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>15</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>23</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>20</v>
       </c>
@@ -4591,14 +4591,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>5</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>6</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>19</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>3</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>12</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>17</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>7</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>24</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>10</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>18</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>21</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>13</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>14</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>22</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>9</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>25</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>16</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>8</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>11</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>20</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>23</v>
       </c>
@@ -4903,188 +4903,188 @@
       <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.08984375" customWidth="1"/>
-    <col min="29" max="29" width="80.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" customWidth="1"/>
+    <col min="29" max="29" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-    </row>
-    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+    </row>
+    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6">
-        <v>2</v>
-      </c>
-      <c r="L2" s="6">
-        <v>2</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>2</v>
-      </c>
-      <c r="P2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>2</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>2</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>2</v>
-      </c>
-      <c r="V2" s="6">
-        <v>2</v>
-      </c>
-      <c r="W2" s="6">
-        <v>2</v>
-      </c>
-      <c r="X2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="6">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>2</v>
+      </c>
+      <c r="W2" s="5">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="5">
         <v>2</v>
       </c>
       <c r="AB2" s="3" t="s">
@@ -5115,83 +5115,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
-      <c r="L3" s="6">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>2</v>
-      </c>
-      <c r="O3" s="6">
-        <v>2</v>
-      </c>
-      <c r="P3" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>2</v>
-      </c>
-      <c r="R3" s="6">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <v>2</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <v>2</v>
-      </c>
-      <c r="V3" s="6">
-        <v>2</v>
-      </c>
-      <c r="W3" s="6">
-        <v>2</v>
-      </c>
-      <c r="X3" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="6">
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>2</v>
+      </c>
+      <c r="V3" s="5">
+        <v>2</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="5">
         <v>2</v>
       </c>
       <c r="AB3" s="3">
@@ -5222,83 +5222,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>2</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>2</v>
-      </c>
-      <c r="O4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>2</v>
-      </c>
-      <c r="R4" s="6">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <v>2</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6">
-        <v>2</v>
-      </c>
-      <c r="V4" s="6">
-        <v>2</v>
-      </c>
-      <c r="W4" s="6">
-        <v>2</v>
-      </c>
-      <c r="X4" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="6">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>2</v>
+      </c>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="5">
         <v>2</v>
       </c>
       <c r="AB4" s="3">
@@ -5329,83 +5329,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
-        <v>2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>2</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6">
-        <v>2</v>
-      </c>
-      <c r="P5" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>2</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <v>2</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6">
-        <v>2</v>
-      </c>
-      <c r="V5" s="6">
-        <v>2</v>
-      </c>
-      <c r="W5" s="6">
-        <v>2</v>
-      </c>
-      <c r="X5" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="6">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+      <c r="W5" s="5">
+        <v>2</v>
+      </c>
+      <c r="X5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="5">
         <v>2</v>
       </c>
       <c r="AB5" s="3">
@@ -5436,83 +5436,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6">
-        <v>2</v>
-      </c>
-      <c r="P6" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>2</v>
-      </c>
-      <c r="R6" s="6">
-        <v>2</v>
-      </c>
-      <c r="S6" s="6">
-        <v>2</v>
-      </c>
-      <c r="T6" s="6">
-        <v>2</v>
-      </c>
-      <c r="U6" s="6">
-        <v>2</v>
-      </c>
-      <c r="V6" s="6">
-        <v>2</v>
-      </c>
-      <c r="W6" s="6">
-        <v>2</v>
-      </c>
-      <c r="X6" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="6">
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2</v>
+      </c>
+      <c r="S6" s="5">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5">
+        <v>2</v>
+      </c>
+      <c r="U6" s="5">
+        <v>2</v>
+      </c>
+      <c r="V6" s="5">
+        <v>2</v>
+      </c>
+      <c r="W6" s="5">
+        <v>2</v>
+      </c>
+      <c r="X6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="5">
         <v>2</v>
       </c>
       <c r="AB6" s="3">
@@ -5543,83 +5543,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="6">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6">
-        <v>2</v>
-      </c>
-      <c r="N7" s="6">
-        <v>2</v>
-      </c>
-      <c r="O7" s="6">
-        <v>2</v>
-      </c>
-      <c r="P7" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>2</v>
-      </c>
-      <c r="R7" s="6">
-        <v>2</v>
-      </c>
-      <c r="S7" s="6">
-        <v>2</v>
-      </c>
-      <c r="T7" s="6">
-        <v>2</v>
-      </c>
-      <c r="U7" s="6">
-        <v>2</v>
-      </c>
-      <c r="V7" s="6">
-        <v>2</v>
-      </c>
-      <c r="W7" s="6">
-        <v>2</v>
-      </c>
-      <c r="X7" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="6">
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2</v>
+      </c>
+      <c r="L7" s="5">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>2</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2</v>
+      </c>
+      <c r="T7" s="5">
+        <v>2</v>
+      </c>
+      <c r="U7" s="5">
+        <v>2</v>
+      </c>
+      <c r="V7" s="5">
+        <v>2</v>
+      </c>
+      <c r="W7" s="5">
+        <v>2</v>
+      </c>
+      <c r="X7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="5">
         <v>2</v>
       </c>
       <c r="AB7" s="3">
@@ -5650,83 +5650,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="6">
-        <v>2</v>
-      </c>
-      <c r="J8" s="6">
-        <v>2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>2</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>2</v>
-      </c>
-      <c r="O8" s="6">
-        <v>2</v>
-      </c>
-      <c r="P8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>2</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>2</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>2</v>
-      </c>
-      <c r="V8" s="6">
-        <v>2</v>
-      </c>
-      <c r="W8" s="6">
-        <v>2</v>
-      </c>
-      <c r="X8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="6">
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>2</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2</v>
+      </c>
+      <c r="V8" s="5">
+        <v>2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>2</v>
+      </c>
+      <c r="X8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="5">
         <v>2</v>
       </c>
       <c r="AB8" s="3">
@@ -5757,83 +5757,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
-        <v>2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>2</v>
-      </c>
-      <c r="O9" s="6">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>2</v>
-      </c>
-      <c r="R9" s="6">
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <v>2</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>2</v>
-      </c>
-      <c r="V9" s="6">
-        <v>2</v>
-      </c>
-      <c r="W9" s="6">
-        <v>2</v>
-      </c>
-      <c r="X9" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="6">
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>2</v>
+      </c>
+      <c r="W9" s="5">
+        <v>2</v>
+      </c>
+      <c r="X9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="5">
         <v>2</v>
       </c>
       <c r="AB9" s="3">
@@ -5864,83 +5864,83 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>2</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>2</v>
-      </c>
-      <c r="O10" s="6">
-        <v>2</v>
-      </c>
-      <c r="P10" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>2</v>
-      </c>
-      <c r="R10" s="6">
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <v>2</v>
-      </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>2</v>
-      </c>
-      <c r="V10" s="6">
-        <v>2</v>
-      </c>
-      <c r="W10" s="6">
-        <v>2</v>
-      </c>
-      <c r="X10" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="6">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>2</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>2</v>
+      </c>
+      <c r="V10" s="5">
+        <v>2</v>
+      </c>
+      <c r="W10" s="5">
+        <v>2</v>
+      </c>
+      <c r="X10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="5">
         <v>2</v>
       </c>
       <c r="AB10" s="3">
@@ -5971,83 +5971,83 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="6">
-        <v>2</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>2</v>
-      </c>
-      <c r="O11" s="6">
-        <v>2</v>
-      </c>
-      <c r="P11" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>2</v>
-      </c>
-      <c r="R11" s="6">
-        <v>0</v>
-      </c>
-      <c r="S11" s="6">
-        <v>2</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>2</v>
-      </c>
-      <c r="V11" s="6">
-        <v>2</v>
-      </c>
-      <c r="W11" s="6">
-        <v>2</v>
-      </c>
-      <c r="X11" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="6">
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>2</v>
+      </c>
+      <c r="V11" s="5">
+        <v>2</v>
+      </c>
+      <c r="W11" s="5">
+        <v>2</v>
+      </c>
+      <c r="X11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="5">
         <v>2</v>
       </c>
       <c r="AB11" s="3">
@@ -6078,83 +6078,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <v>1</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>2</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2</v>
-      </c>
-      <c r="P12" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>2</v>
-      </c>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="6">
-        <v>2</v>
-      </c>
-      <c r="T12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>2</v>
-      </c>
-      <c r="V12" s="6">
-        <v>2</v>
-      </c>
-      <c r="W12" s="6">
-        <v>2</v>
-      </c>
-      <c r="X12" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="6">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>2</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2</v>
+      </c>
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="5">
         <v>2</v>
       </c>
       <c r="AB12" s="3">
@@ -6185,83 +6185,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>2</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="6">
-        <v>2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>2</v>
-      </c>
-      <c r="L13" s="6">
-        <v>2</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+      <c r="M13" s="5">
         <v>1</v>
       </c>
-      <c r="N13" s="6">
-        <v>2</v>
-      </c>
-      <c r="O13" s="6">
-        <v>2</v>
-      </c>
-      <c r="P13" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>2</v>
-      </c>
-      <c r="R13" s="6">
-        <v>2</v>
-      </c>
-      <c r="S13" s="6">
-        <v>2</v>
-      </c>
-      <c r="T13" s="6">
-        <v>2</v>
-      </c>
-      <c r="U13" s="6">
-        <v>2</v>
-      </c>
-      <c r="V13" s="6">
-        <v>2</v>
-      </c>
-      <c r="W13" s="6">
-        <v>2</v>
-      </c>
-      <c r="X13" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="6">
+      <c r="N13" s="5">
+        <v>2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>2</v>
+      </c>
+      <c r="P13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2</v>
+      </c>
+      <c r="S13" s="5">
+        <v>2</v>
+      </c>
+      <c r="T13" s="5">
+        <v>2</v>
+      </c>
+      <c r="U13" s="5">
+        <v>2</v>
+      </c>
+      <c r="V13" s="5">
+        <v>2</v>
+      </c>
+      <c r="W13" s="5">
+        <v>2</v>
+      </c>
+      <c r="X13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="5">
         <v>2</v>
       </c>
       <c r="AB13" s="3">
@@ -6292,83 +6292,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <v>1</v>
       </c>
-      <c r="O14" s="6">
-        <v>2</v>
-      </c>
-      <c r="P14" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>2</v>
-      </c>
-      <c r="R14" s="6">
-        <v>0</v>
-      </c>
-      <c r="S14" s="6">
-        <v>2</v>
-      </c>
-      <c r="T14" s="6">
-        <v>0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>2</v>
-      </c>
-      <c r="V14" s="6">
-        <v>2</v>
-      </c>
-      <c r="W14" s="6">
-        <v>2</v>
-      </c>
-      <c r="X14" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="6">
+      <c r="O14" s="5">
+        <v>2</v>
+      </c>
+      <c r="P14" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>2</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>2</v>
+      </c>
+      <c r="V14" s="5">
+        <v>2</v>
+      </c>
+      <c r="W14" s="5">
+        <v>2</v>
+      </c>
+      <c r="X14" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="5">
         <v>2</v>
       </c>
       <c r="AB14" s="3">
@@ -6399,83 +6399,83 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
         <v>1</v>
       </c>
-      <c r="P15" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>2</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>2</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>2</v>
-      </c>
-      <c r="V15" s="6">
-        <v>2</v>
-      </c>
-      <c r="W15" s="6">
-        <v>2</v>
-      </c>
-      <c r="X15" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="6">
+      <c r="P15" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>2</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+      <c r="W15" s="5">
+        <v>2</v>
+      </c>
+      <c r="X15" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="5">
         <v>2</v>
       </c>
       <c r="AB15" s="3">
@@ -6506,83 +6506,83 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
         <v>1</v>
       </c>
-      <c r="Q16" s="6">
-        <v>2</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>2</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>2</v>
-      </c>
-      <c r="V16" s="6">
-        <v>2</v>
-      </c>
-      <c r="W16" s="6">
-        <v>2</v>
-      </c>
-      <c r="X16" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="6">
+      <c r="Q16" s="5">
+        <v>2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>2</v>
+      </c>
+      <c r="V16" s="5">
+        <v>2</v>
+      </c>
+      <c r="W16" s="5">
+        <v>2</v>
+      </c>
+      <c r="X16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="5">
         <v>2</v>
       </c>
       <c r="AB16" s="3">
@@ -6613,83 +6613,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
         <v>1</v>
       </c>
-      <c r="R17" s="6">
-        <v>0</v>
-      </c>
-      <c r="S17" s="6">
-        <v>2</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>2</v>
-      </c>
-      <c r="V17" s="6">
-        <v>2</v>
-      </c>
-      <c r="W17" s="6">
-        <v>2</v>
-      </c>
-      <c r="X17" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="6">
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>2</v>
+      </c>
+      <c r="V17" s="5">
+        <v>2</v>
+      </c>
+      <c r="W17" s="5">
+        <v>2</v>
+      </c>
+      <c r="X17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="5">
         <v>2</v>
       </c>
       <c r="AB17" s="3">
@@ -6720,83 +6720,83 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>2</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2</v>
-      </c>
-      <c r="K18" s="6">
-        <v>2</v>
-      </c>
-      <c r="L18" s="6">
-        <v>2</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
-      <c r="O18" s="6">
-        <v>2</v>
-      </c>
-      <c r="P18" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>2</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>2</v>
+      </c>
+      <c r="O18" s="5">
+        <v>2</v>
+      </c>
+      <c r="P18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>2</v>
+      </c>
+      <c r="R18" s="5">
         <v>1</v>
       </c>
-      <c r="S18" s="6">
-        <v>2</v>
-      </c>
-      <c r="T18" s="6">
-        <v>2</v>
-      </c>
-      <c r="U18" s="6">
-        <v>2</v>
-      </c>
-      <c r="V18" s="6">
-        <v>2</v>
-      </c>
-      <c r="W18" s="6">
-        <v>2</v>
-      </c>
-      <c r="X18" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="6">
+      <c r="S18" s="5">
+        <v>2</v>
+      </c>
+      <c r="T18" s="5">
+        <v>2</v>
+      </c>
+      <c r="U18" s="5">
+        <v>2</v>
+      </c>
+      <c r="V18" s="5">
+        <v>2</v>
+      </c>
+      <c r="W18" s="5">
+        <v>2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="5">
         <v>2</v>
       </c>
       <c r="AB18" s="3">
@@ -6827,83 +6827,83 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
         <v>1</v>
       </c>
-      <c r="T19" s="6">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>2</v>
-      </c>
-      <c r="V19" s="6">
-        <v>2</v>
-      </c>
-      <c r="W19" s="6">
-        <v>2</v>
-      </c>
-      <c r="X19" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="6">
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>2</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2</v>
+      </c>
+      <c r="X19" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="5">
         <v>2</v>
       </c>
       <c r="AB19" s="3">
@@ -6934,83 +6934,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>2</v>
-      </c>
-      <c r="I20" s="6">
-        <v>2</v>
-      </c>
-      <c r="J20" s="6">
-        <v>2</v>
-      </c>
-      <c r="K20" s="6">
-        <v>2</v>
-      </c>
-      <c r="L20" s="6">
-        <v>2</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>2</v>
-      </c>
-      <c r="O20" s="6">
-        <v>2</v>
-      </c>
-      <c r="P20" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>2</v>
-      </c>
-      <c r="R20" s="6">
-        <v>0</v>
-      </c>
-      <c r="S20" s="6">
-        <v>2</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
+        <v>2</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>2</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2</v>
+      </c>
+      <c r="P20" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>2</v>
+      </c>
+      <c r="T20" s="5">
         <v>1</v>
       </c>
-      <c r="U20" s="6">
-        <v>2</v>
-      </c>
-      <c r="V20" s="6">
-        <v>2</v>
-      </c>
-      <c r="W20" s="6">
-        <v>2</v>
-      </c>
-      <c r="X20" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="6">
+      <c r="U20" s="5">
+        <v>2</v>
+      </c>
+      <c r="V20" s="5">
+        <v>2</v>
+      </c>
+      <c r="W20" s="5">
+        <v>2</v>
+      </c>
+      <c r="X20" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="5">
         <v>2</v>
       </c>
       <c r="AB20" s="3">
@@ -7041,83 +7041,83 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6">
-        <v>0</v>
-      </c>
-      <c r="S21" s="6">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
         <v>1</v>
       </c>
-      <c r="V21" s="6">
-        <v>2</v>
-      </c>
-      <c r="W21" s="6">
-        <v>2</v>
-      </c>
-      <c r="X21" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="6">
+      <c r="V21" s="5">
+        <v>2</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="5">
         <v>2</v>
       </c>
       <c r="AB21" s="3">
@@ -7148,83 +7148,83 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="6">
-        <v>0</v>
-      </c>
-      <c r="S22" s="6">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
         <v>1</v>
       </c>
-      <c r="W22" s="6">
-        <v>2</v>
-      </c>
-      <c r="X22" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="6">
+      <c r="W22" s="5">
+        <v>2</v>
+      </c>
+      <c r="X22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="5">
         <v>2</v>
       </c>
       <c r="AB22" s="3">
@@ -7255,83 +7255,83 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="6">
-        <v>0</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0</v>
-      </c>
-      <c r="W23" s="6">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
         <v>1</v>
       </c>
-      <c r="X23" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="6">
+      <c r="X23" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="5">
         <v>2</v>
       </c>
       <c r="AB23" s="3">
@@ -7362,83 +7362,83 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <v>0</v>
-      </c>
-      <c r="S24" s="6">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0</v>
-      </c>
-      <c r="V24" s="6">
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
         <v>1</v>
       </c>
-      <c r="Y24" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="6">
+      <c r="Y24" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="5">
         <v>2</v>
       </c>
       <c r="AB24" s="3">
@@ -7469,83 +7469,83 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="6">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <v>0</v>
-      </c>
-      <c r="T25" s="6">
-        <v>0</v>
-      </c>
-      <c r="U25" s="6">
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
-        <v>0</v>
-      </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
-      <c r="X25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="6">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
         <v>1</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Z25" s="5">
         <v>2</v>
       </c>
       <c r="AB25" s="3">
@@ -7576,83 +7576,83 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="18" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-      <c r="S26" s="6">
-        <v>0</v>
-      </c>
-      <c r="T26" s="6">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0</v>
-      </c>
-      <c r="V26" s="6">
-        <v>0</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="6">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
         <v>1</v>
       </c>
       <c r="AB26" s="3">
@@ -7683,7 +7683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="AB27" s="3">
         <v>23</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>86</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>87</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:36" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>89</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>90</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>91</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>92</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>94</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>95</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>96</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>97</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>98</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>100</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>103</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>105</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>106</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>109</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>110</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>70</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>86</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>87</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>88</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>89</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>90</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>91</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>92</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>93</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>94</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>97</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>98</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>100</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>101</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>102</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>104</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>105</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>106</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>107</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>108</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>109</v>
       </c>
@@ -11792,7 +11792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>110</v>
       </c>
@@ -11884,23 +11884,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2D18B3-28BF-45AD-9B1B-4433234722D1}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11928,7 +11928,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>5</v>
       </c>
@@ -11956,7 +11956,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11984,7 +11984,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>6</v>
       </c>
@@ -12012,7 +12012,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -12040,7 +12040,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>19</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -12096,7 +12096,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -12124,7 +12124,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -12180,7 +12180,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -12208,7 +12208,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>24</v>
       </c>
@@ -12236,7 +12236,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -12264,7 +12264,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -12276,7 +12276,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -12288,7 +12288,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -12300,7 +12300,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -12311,7 +12311,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -12323,7 +12323,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -12335,7 +12335,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -12347,7 +12347,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -12359,7 +12359,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -12371,7 +12371,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -12383,7 +12383,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -12395,7 +12395,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -12407,7 +12407,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
